--- a/icd_files/20452.xlsx
+++ b/icd_files/20452.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF517D8-7BE5-481B-A3F7-3D27D0CD46E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3184D9-1DBB-4809-81E1-4D16E07B301F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="256">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -330,6 +330,18 @@
     <t>03-12</t>
   </si>
   <si>
+    <t>03-13</t>
+  </si>
+  <si>
+    <t>03-14</t>
+  </si>
+  <si>
+    <t>03-15</t>
+  </si>
+  <si>
+    <t>03-16</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -339,21 +351,90 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Acetylcysteine 20%</t>
+  </si>
+  <si>
+    <t>Alteplase (Catheter Clearance)</t>
+  </si>
+  <si>
+    <t>Morphine Sulfate</t>
+  </si>
+  <si>
+    <t>Promethazine HCl</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>HYDROmorphone (Dilaudid)</t>
+  </si>
+  <si>
+    <t>Potassium Chl 20 mEq / 1000 mL D5 1/2 NS</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Zolpidem Tartrate</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Amino Acids 4.25% W/ Dextrose 5%</t>
+  </si>
+  <si>
     <t>Propofol</t>
   </si>
   <si>
-    <t>Morphine Sulfate</t>
-  </si>
-  <si>
-    <t>Potassium Chloride</t>
+    <t>Piperacillin-Tazobactam Na</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Heparin</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>2-4 SYR</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
     <t>1000 VIAL</t>
   </si>
   <si>
+    <t>4.5 BAG</t>
+  </si>
+  <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>5000 ml</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
@@ -402,10 +483,40 @@
     <t>1 SYR</t>
   </si>
   <si>
+    <t>3-5 VIAL</t>
+  </si>
+  <si>
     <t>02:00</t>
   </si>
   <si>
+    <t>1-5 SYR</t>
+  </si>
+  <si>
+    <t>6.25-12.5 AMP</t>
+  </si>
+  <si>
+    <t>0.25-0.5 VIAL</t>
+  </si>
+  <si>
     <t>1.5 SYR</t>
+  </si>
+  <si>
+    <t>0.12 SYR</t>
+  </si>
+  <si>
+    <t>2-4 TAB</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>5-10 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3194,7 +3305,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000000-6A33-4866-9233-6509706C6B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3760,7 +3871,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000001-6A33-4866-9233-6509706C6B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4326,7 +4437,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000002-6A33-4866-9233-6509706C6B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4895,7 +5006,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000003-6A33-4866-9233-6509706C6B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5464,7 +5575,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000004-6A33-4866-9233-6509706C6B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5850,7 +5961,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000005-6A33-4866-9233-6509706C6B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6198,7 +6309,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000006-6A33-4866-9233-6509706C6B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6546,7 +6657,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000007-6A33-4866-9233-6509706C6B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6894,7 +7005,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000008-6A33-4866-9233-6509706C6B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7337,7 +7448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E6307D-0E7B-4DD8-B57F-77511836E016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C5A443-BDE7-4C32-9169-005F6050FDE4}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -7362,7 +7473,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -7375,7 +7486,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -7388,7 +7499,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -7401,7 +7512,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -7414,27 +7525,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -7462,7 +7573,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -7490,11 +7601,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -7517,7 +7628,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7554,7 +7665,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -7577,14 +7688,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -7607,14 +7718,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -7637,14 +7748,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -7667,14 +7778,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -7697,16 +7808,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -7729,14 +7840,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -7759,10 +7870,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -7770,7 +7881,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -7782,7 +7893,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -7805,7 +7916,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -7821,11 +7932,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -7848,7 +7959,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -7866,7 +7977,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -7889,7 +8000,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -7908,7 +8019,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -7931,10 +8042,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -7952,7 +8063,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -7975,52 +8086,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -8043,53 +8154,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -8112,43 +8223,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -8156,7 +8267,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -8179,43 +8290,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -8223,7 +8334,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -8246,43 +8357,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -8290,7 +8401,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -8313,43 +8424,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -8357,7 +8468,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -8380,43 +8491,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -8424,7 +8535,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -8447,43 +8558,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -8491,7 +8602,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -8514,43 +8625,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -8558,7 +8669,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -8581,43 +8692,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -8625,7 +8736,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -8648,43 +8759,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -8692,7 +8803,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -8715,43 +8826,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -8759,7 +8870,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -8782,43 +8893,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -8826,7 +8937,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -8849,7 +8960,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -8862,10 +8973,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -8873,7 +8984,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -8896,14 +9007,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -8918,7 +9029,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -8941,7 +9052,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -8961,7 +9072,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -8984,7 +9095,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -9004,7 +9115,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -9027,7 +9138,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -9045,11 +9156,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -9072,14 +9183,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -9102,14 +9213,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -9132,14 +9243,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -9162,14 +9273,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -9192,14 +9303,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -9222,14 +9333,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -9252,10 +9363,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -9272,7 +9383,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -9295,7 +9406,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -9313,7 +9424,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -9336,7 +9447,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -9354,7 +9465,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -9377,14 +9488,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -9407,14 +9518,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -9437,24 +9548,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -9477,7 +9588,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -9486,7 +9597,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -9509,14 +9620,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -9524,7 +9635,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -9547,7 +9658,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -9556,7 +9667,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -9579,14 +9690,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -9594,7 +9705,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -9617,7 +9728,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -9626,7 +9737,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -9649,24 +9760,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -9689,7 +9800,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -9698,7 +9809,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -9721,22 +9832,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -9744,7 +9855,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -9767,7 +9878,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -9780,7 +9891,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -9803,32 +9914,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -9851,7 +9962,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -9860,7 +9971,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -9883,14 +9994,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -9898,7 +10009,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -9921,14 +10032,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -9951,12 +10062,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -9984,7 +10095,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -10011,13 +10122,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -10045,7 +10156,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -10157,7 +10268,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -10185,7 +10296,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -10213,7 +10324,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -12360,13 +12471,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AK38"/>
+  <dimension ref="A30:AR54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -12374,7 +12485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>96</v>
       </c>
@@ -12481,135 +12592,177 @@
         <v>100</v>
       </c>
       <c r="AK31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL31" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AM31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" t="s">
+        <v>145</v>
+      </c>
+      <c r="M32" t="s">
+        <v>146</v>
+      </c>
+      <c r="N32" t="s">
+        <v>147</v>
+      </c>
+      <c r="O32" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>141</v>
+      </c>
+      <c r="R32" t="s">
+        <v>128</v>
+      </c>
+      <c r="S32" t="s">
+        <v>149</v>
+      </c>
+      <c r="T32" t="s">
+        <v>143</v>
+      </c>
+      <c r="U32" t="s">
+        <v>144</v>
+      </c>
+      <c r="V32" t="s">
+        <v>145</v>
+      </c>
+      <c r="W32" t="s">
+        <v>150</v>
+      </c>
+      <c r="X32" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" t="s">
-        <v>117</v>
-      </c>
-      <c r="L32" t="s">
-        <v>118</v>
-      </c>
-      <c r="M32" t="s">
-        <v>119</v>
-      </c>
-      <c r="N32" t="s">
-        <v>120</v>
-      </c>
-      <c r="O32" t="s">
-        <v>112</v>
-      </c>
-      <c r="P32" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>114</v>
-      </c>
-      <c r="R32" t="s">
-        <v>108</v>
-      </c>
-      <c r="S32" t="s">
-        <v>122</v>
-      </c>
-      <c r="T32" t="s">
-        <v>116</v>
-      </c>
-      <c r="U32" t="s">
-        <v>117</v>
-      </c>
-      <c r="V32" t="s">
-        <v>118</v>
-      </c>
-      <c r="W32" t="s">
-        <v>123</v>
-      </c>
-      <c r="X32" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -12692,47 +12845,223 @@
       <c r="AG35">
         <v>11</v>
       </c>
-      <c r="AH35">
-        <v>11</v>
-      </c>
       <c r="AI35">
         <v>11</v>
       </c>
       <c r="AJ35">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AK35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
         <v>109</v>
       </c>
-      <c r="R36" t="s">
+      <c r="AB36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB37" t="s">
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="R49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" t="s">
-        <v>115</v>
+      <c r="B54" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/20452.xlsx
+++ b/icd_files/20452.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF517D8-7BE5-481B-A3F7-3D27D0CD46E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CB289B-9EBB-4C8B-8344-A3A8D755BA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="256">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -330,6 +330,18 @@
     <t>03-12</t>
   </si>
   <si>
+    <t>03-13</t>
+  </si>
+  <si>
+    <t>03-14</t>
+  </si>
+  <si>
+    <t>03-15</t>
+  </si>
+  <si>
+    <t>03-16</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -339,21 +351,90 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Acetylcysteine 20%</t>
+  </si>
+  <si>
+    <t>Alteplase (Catheter Clearance)</t>
+  </si>
+  <si>
+    <t>Morphine Sulfate</t>
+  </si>
+  <si>
+    <t>Promethazine HCl</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>HYDROmorphone (Dilaudid)</t>
+  </si>
+  <si>
+    <t>Potassium Chl 20 mEq / 1000 mL D5 1/2 NS</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Zolpidem Tartrate</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Amino Acids 4.25% W/ Dextrose 5%</t>
+  </si>
+  <si>
     <t>Propofol</t>
   </si>
   <si>
-    <t>Morphine Sulfate</t>
-  </si>
-  <si>
-    <t>Potassium Chloride</t>
+    <t>Piperacillin-Tazobactam Na</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Heparin</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>2-4 SYR</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
     <t>1000 VIAL</t>
   </si>
   <si>
+    <t>4.5 BAG</t>
+  </si>
+  <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>5000 ml</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
@@ -402,10 +483,40 @@
     <t>1 SYR</t>
   </si>
   <si>
+    <t>3-5 VIAL</t>
+  </si>
+  <si>
     <t>02:00</t>
   </si>
   <si>
+    <t>1-5 SYR</t>
+  </si>
+  <si>
+    <t>6.25-12.5 AMP</t>
+  </si>
+  <si>
+    <t>0.25-0.5 VIAL</t>
+  </si>
+  <si>
     <t>1.5 SYR</t>
+  </si>
+  <si>
+    <t>0.12 SYR</t>
+  </si>
+  <si>
+    <t>2-4 TAB</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>5-10 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3194,7 +3305,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000000-2D8D-42D1-A7B7-D59B88071ABC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3760,7 +3871,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000001-2D8D-42D1-A7B7-D59B88071ABC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4326,7 +4437,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000002-2D8D-42D1-A7B7-D59B88071ABC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4895,7 +5006,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000003-2D8D-42D1-A7B7-D59B88071ABC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5464,7 +5575,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000004-2D8D-42D1-A7B7-D59B88071ABC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5850,7 +5961,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000005-2D8D-42D1-A7B7-D59B88071ABC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6198,7 +6309,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000006-2D8D-42D1-A7B7-D59B88071ABC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6546,7 +6657,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000007-2D8D-42D1-A7B7-D59B88071ABC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6894,7 +7005,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-756F-410A-99AF-DE97BFCC98B9}"/>
+              <c16:uniqueId val="{00000008-2D8D-42D1-A7B7-D59B88071ABC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7337,7 +7448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E6307D-0E7B-4DD8-B57F-77511836E016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC66405-11F4-4D10-98E9-503CAA6EADC1}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -7362,7 +7473,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -7375,7 +7486,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -7388,7 +7499,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -7401,7 +7512,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -7414,27 +7525,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -7462,7 +7573,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -7490,11 +7601,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -7517,7 +7628,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7554,7 +7665,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -7577,14 +7688,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -7607,14 +7718,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -7637,14 +7748,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -7667,14 +7778,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -7697,16 +7808,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -7729,14 +7840,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -7759,10 +7870,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -7770,7 +7881,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -7782,7 +7893,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -7805,7 +7916,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -7821,11 +7932,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -7848,7 +7959,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -7866,7 +7977,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -7889,7 +8000,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -7908,7 +8019,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -7931,10 +8042,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -7952,7 +8063,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -7975,52 +8086,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -8043,53 +8154,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -8112,43 +8223,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -8156,7 +8267,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -8179,43 +8290,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -8223,7 +8334,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -8246,43 +8357,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -8290,7 +8401,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -8313,43 +8424,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -8357,7 +8468,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -8380,43 +8491,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -8424,7 +8535,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -8447,43 +8558,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -8491,7 +8602,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -8514,43 +8625,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -8558,7 +8669,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -8581,43 +8692,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -8625,7 +8736,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -8648,43 +8759,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -8692,7 +8803,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -8715,43 +8826,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -8759,7 +8870,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -8782,43 +8893,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -8826,7 +8937,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -8849,7 +8960,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -8862,10 +8973,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -8873,7 +8984,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -8896,14 +9007,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -8918,7 +9029,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -8941,7 +9052,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -8961,7 +9072,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -8984,7 +9095,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -9004,7 +9115,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -9027,7 +9138,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -9045,11 +9156,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -9072,14 +9183,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -9102,14 +9213,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -9132,14 +9243,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -9162,14 +9273,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -9192,14 +9303,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -9222,14 +9333,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -9252,10 +9363,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -9272,7 +9383,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -9295,7 +9406,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -9313,7 +9424,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -9336,7 +9447,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -9354,7 +9465,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -9377,14 +9488,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -9407,14 +9518,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -9437,24 +9548,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -9477,7 +9588,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -9486,7 +9597,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -9509,14 +9620,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -9524,7 +9635,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -9547,7 +9658,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -9556,7 +9667,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -9579,14 +9690,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -9594,7 +9705,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -9617,7 +9728,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -9626,7 +9737,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -9649,24 +9760,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -9689,7 +9800,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -9698,7 +9809,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -9721,22 +9832,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -9744,7 +9855,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -9767,7 +9878,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -9780,7 +9891,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -9803,32 +9914,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -9851,7 +9962,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -9860,7 +9971,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -9883,14 +9994,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -9898,7 +10009,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -9921,14 +10032,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -9951,12 +10062,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -9984,7 +10095,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -10011,13 +10122,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -10045,7 +10156,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -10157,7 +10268,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -10185,7 +10296,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -10213,7 +10324,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -12360,13 +12471,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:AK38"/>
+  <dimension ref="A30:AR54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -12374,7 +12485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>96</v>
       </c>
@@ -12481,135 +12592,177 @@
         <v>100</v>
       </c>
       <c r="AK31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL31" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AM31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" t="s">
+        <v>145</v>
+      </c>
+      <c r="M32" t="s">
+        <v>146</v>
+      </c>
+      <c r="N32" t="s">
+        <v>147</v>
+      </c>
+      <c r="O32" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>141</v>
+      </c>
+      <c r="R32" t="s">
+        <v>128</v>
+      </c>
+      <c r="S32" t="s">
+        <v>149</v>
+      </c>
+      <c r="T32" t="s">
+        <v>143</v>
+      </c>
+      <c r="U32" t="s">
+        <v>144</v>
+      </c>
+      <c r="V32" t="s">
+        <v>145</v>
+      </c>
+      <c r="W32" t="s">
+        <v>150</v>
+      </c>
+      <c r="X32" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" t="s">
-        <v>117</v>
-      </c>
-      <c r="L32" t="s">
-        <v>118</v>
-      </c>
-      <c r="M32" t="s">
-        <v>119</v>
-      </c>
-      <c r="N32" t="s">
-        <v>120</v>
-      </c>
-      <c r="O32" t="s">
-        <v>112</v>
-      </c>
-      <c r="P32" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>114</v>
-      </c>
-      <c r="R32" t="s">
-        <v>108</v>
-      </c>
-      <c r="S32" t="s">
-        <v>122</v>
-      </c>
-      <c r="T32" t="s">
-        <v>116</v>
-      </c>
-      <c r="U32" t="s">
-        <v>117</v>
-      </c>
-      <c r="V32" t="s">
-        <v>118</v>
-      </c>
-      <c r="W32" t="s">
-        <v>123</v>
-      </c>
-      <c r="X32" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -12692,47 +12845,223 @@
       <c r="AG35">
         <v>11</v>
       </c>
-      <c r="AH35">
-        <v>11</v>
-      </c>
       <c r="AI35">
         <v>11</v>
       </c>
       <c r="AJ35">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AK35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
         <v>109</v>
       </c>
-      <c r="R36" t="s">
+      <c r="AB36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB37" t="s">
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="R49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" t="s">
-        <v>115</v>
+      <c r="B54" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
